--- a/StructureDefinition-us-core-treatment-intervention-preference.xlsx
+++ b/StructureDefinition-us-core-treatment-intervention-preference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-treatment-intervention-preference</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-treatment-intervention-preference</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20</t>
+    <t>2023-10-02</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,6 +524,14 @@
     <t>us-core</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-category"/&gt;
+    &lt;code value="intervention-preference"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
@@ -537,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Treatment intervention preferences code</t>
+    <t>Treatment intervention preferences code</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -549,10 +557,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/ValueSet/uscore-treatment-intervention-preference</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -795,6 +800,9 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1208,11 +1216,11 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
+    <t>(ADD'L USCDI) US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
@@ -1267,9 +1275,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1666,7 +1671,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="88.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3385,7 +3390,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>51</v>
@@ -3419,7 +3424,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3437,10 +3442,10 @@
         <v>139</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3493,14 +3498,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3522,16 +3527,16 @@
         <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3541,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>41</v>
@@ -3556,7 +3561,7 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
@@ -3578,7 +3583,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>50</v>
@@ -4524,13 +4529,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -4557,7 +4562,7 @@
         <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>62</v>
@@ -4572,7 +4577,7 @@
         <v>93</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4583,14 +4588,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4612,16 +4617,16 @@
         <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4646,13 +4651,13 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4670,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4688,27 +4693,27 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4731,19 +4736,19 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4792,7 +4797,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4813,10 +4818,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -4827,10 +4832,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4856,13 +4861,13 @@
         <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4888,13 +4893,13 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -4912,7 +4917,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4930,27 +4935,27 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4976,16 +4981,16 @@
         <v>148</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5010,13 +5015,13 @@
         <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>41</v>
@@ -5034,7 +5039,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5055,10 +5060,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5069,10 +5074,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5095,16 +5100,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5154,7 +5159,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5172,27 +5177,27 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5215,16 +5220,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5274,7 +5279,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5292,27 +5297,27 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5335,19 +5340,19 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5396,7 +5401,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5408,7 +5413,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5417,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5431,10 +5436,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5457,13 +5462,13 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5514,7 +5519,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5538,7 +5543,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5549,10 +5554,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5581,7 +5586,7 @@
         <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>99</v>
@@ -5634,7 +5639,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5658,7 +5663,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5669,14 +5674,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5698,10 +5703,10 @@
         <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>99</v>
@@ -5756,7 +5761,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5791,10 +5796,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5817,13 +5822,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5874,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5883,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>62</v>
@@ -5895,10 +5900,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -5909,10 +5914,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5935,13 +5940,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5992,7 +5997,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6001,7 +6006,7 @@
         <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>62</v>
@@ -6013,10 +6018,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6027,10 +6032,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6056,16 +6061,16 @@
         <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6093,10 +6098,10 @@
         <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -6114,7 +6119,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6132,13 +6137,13 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6149,10 +6154,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6178,16 +6183,16 @@
         <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6212,13 +6217,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6236,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6254,13 +6259,13 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6271,10 +6276,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6297,17 +6302,17 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6356,7 +6361,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6380,7 +6385,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6391,10 +6396,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6417,13 +6422,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6474,7 +6479,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6495,10 +6500,10 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6509,10 +6514,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6535,16 +6540,16 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6594,7 +6599,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6615,10 +6620,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6629,10 +6634,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6646,7 +6651,7 @@
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
@@ -6655,16 +6660,16 @@
         <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6714,7 +6719,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6735,10 +6740,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -6749,10 +6754,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6775,19 +6780,19 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6836,7 +6841,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6857,10 +6862,10 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -6871,10 +6876,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6897,13 +6902,13 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6954,7 +6959,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6978,7 +6983,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -6989,10 +6994,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7021,7 +7026,7 @@
         <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>99</v>
@@ -7074,7 +7079,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7098,7 +7103,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7109,14 +7114,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7138,10 +7143,10 @@
         <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>99</v>
@@ -7196,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7231,10 +7236,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7260,16 +7265,16 @@
         <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7294,13 +7299,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7318,7 +7323,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>50</v>
@@ -7538,13 +7543,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7571,7 +7576,7 @@
         <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>62</v>
@@ -7586,7 +7591,7 @@
         <v>93</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7604,7 +7609,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7626,16 +7631,16 @@
         <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7660,13 +7665,13 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -7702,19 +7707,19 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7754,10 +7759,10 @@
         <v>411</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7827,10 +7832,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-us-core-treatment-intervention-preference.xlsx
+++ b/StructureDefinition-us-core-treatment-intervention-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t>(ADD'L USCDI) US Core Profiles or other resource the observation is made from</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>

--- a/StructureDefinition-us-core-treatment-intervention-preference.xlsx
+++ b/StructureDefinition-us-core-treatment-intervention-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>

--- a/StructureDefinition-us-core-treatment-intervention-preference.xlsx
+++ b/StructureDefinition-us-core-treatment-intervention-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12</t>
+    <t>2023-10-19</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-category"/&gt;
-    &lt;code value="intervention-preference"/&gt;
+    &lt;code value="treatment-intervention-preference"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-us-core-treatment-intervention-preference.xlsx
+++ b/StructureDefinition-us-core-treatment-intervention-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>Publisher</t>
